--- a/data/trans_dic/P36B_4_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P36B_4_R-Habitat-trans_dic.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -50,6 +50,34 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin"/>
@@ -476,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -492,6 +520,15 @@
     <col width="14" customWidth="1" min="3" max="3"/>
     <col width="14" customWidth="1" min="4" max="4"/>
     <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -506,31 +543,85 @@
           <t>Hombre</t>
         </is>
       </c>
-      <c r="D1" s="3" t="inlineStr">
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
@@ -542,11 +633,20 @@
       <c r="C3" s="2" t="n"/>
       <c r="D3" s="2" t="n"/>
       <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -556,15 +656,60 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>56,93%</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>62,16%</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>54,16%</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
           <t>76,51%</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>61,73%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>81,39%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>62,81%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
         <is>
           <t>80,41%</t>
         </is>
       </c>
-      <c r="E4" s="2" t="inlineStr">
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>59,3%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>71,61%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>58,43%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
         <is>
           <t>78,71%</t>
         </is>
@@ -579,15 +724,60 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>47,51; 66,14</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>53,28; 71,31</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>45,03; 63,03</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
           <t>64,9; 85,0</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>53,97; 70,61</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>72,28; 88,14</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>53,8; 71,08</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
         <is>
           <t>74,0; 85,62</t>
         </is>
       </c>
-      <c r="E5" s="2" t="inlineStr">
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>52,69; 65,85</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>65,01; 77,02</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>51,12; 64,96</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
         <is>
           <t>73,2; 83,69</t>
         </is>
@@ -596,7 +786,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -606,15 +796,60 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>49,06%</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>64,1%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>55,96%</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
           <t>81,34%</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>60,36%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>68,49%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>60,47%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
         <is>
           <t>83,28%</t>
         </is>
       </c>
-      <c r="E6" s="2" t="inlineStr">
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>54,7%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>66,29%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>58,22%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
         <is>
           <t>82,35%</t>
         </is>
@@ -629,15 +864,60 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>44,85; 53,39</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>60,15; 68,04</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>51,54; 60,19</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
           <t>77,74; 85,14</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>56,44; 63,96</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>65,11; 72,53</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>56,43; 64,33</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
         <is>
           <t>80,59; 85,89</t>
         </is>
       </c>
-      <c r="E7" s="2" t="inlineStr">
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>51,68; 57,32</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>63,55; 69,13</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>55,31; 60,9</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
         <is>
           <t>80,07; 84,79</t>
         </is>
@@ -646,7 +926,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -656,15 +936,60 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>47,39%</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>58,06%</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>53,93%</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
           <t>80,52%</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>54,87%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>68,18%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>55,0%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
         <is>
           <t>84,17%</t>
         </is>
       </c>
-      <c r="E8" s="2" t="inlineStr">
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>51,14%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>63,16%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>54,47%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
         <is>
           <t>82,36%</t>
         </is>
@@ -679,15 +1004,60 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>44,29; 50,79</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>54,58; 61,29</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>50,74; 57,17</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
           <t>77,61; 84,18</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>51,49; 57,91</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>64,97; 71,24</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>52,01; 58,46</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
         <is>
           <t>81,95; 86,34</t>
         </is>
       </c>
-      <c r="E9" s="2" t="inlineStr">
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>48,66; 53,33</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>60,85; 65,27</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>52,38; 56,75</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
         <is>
           <t>80,37; 84,23</t>
         </is>
@@ -696,7 +1066,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -706,15 +1076,60 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>48,37%</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>56,3%</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>48,9%</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
           <t>71,95%</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>57,41%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>62,38%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>53,61%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
         <is>
           <t>64,87%</t>
         </is>
       </c>
-      <c r="E10" s="2" t="inlineStr">
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>52,91%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>59,38%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>51,29%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
         <is>
           <t>68,09%</t>
         </is>
@@ -729,15 +1144,60 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>44,45; 52,24</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>52,19; 60,06</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>45,26; 52,58</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
           <t>68,21; 76,11</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>53,56; 61,05</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>58,41; 65,84</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>49,93; 57,11</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
         <is>
           <t>43,22; 75,21</t>
         </is>
       </c>
-      <c r="E11" s="2" t="inlineStr">
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>49,9; 55,49</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>56,79; 62,03</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>48,79; 53,84</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
         <is>
           <t>53,37; 73,91</t>
         </is>
@@ -756,15 +1216,60 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>44,52%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>61,15%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>58,77%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
           <t>71,86%</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>52,54%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>70,0%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>66,67%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
         <is>
           <t>77,05%</t>
         </is>
       </c>
-      <c r="E12" s="2" t="inlineStr">
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>48,72%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>65,8%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>62,93%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
         <is>
           <t>74,68%</t>
         </is>
@@ -779,15 +1284,60 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
+          <t>41,38; 47,82</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>57,76; 64,27</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>55,42; 61,82</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
           <t>68,44; 74,89</t>
         </is>
       </c>
-      <c r="D13" s="2" t="inlineStr">
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>49,43; 55,73</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>67,03; 72,91</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>63,46; 69,74</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
         <is>
           <t>74,55; 79,53</t>
         </is>
       </c>
-      <c r="E13" s="2" t="inlineStr">
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>46,41; 50,73</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>63,56; 67,83</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>60,74; 65,06</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
         <is>
           <t>72,69; 76,57</t>
         </is>
@@ -806,15 +1356,60 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
+          <t>47,4%</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>59,71%</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>54,48%</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
           <t>76,22%</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>55,83%</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>67,92%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>59,24%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
         <is>
           <t>77,32%</t>
         </is>
       </c>
-      <c r="E14" s="2" t="inlineStr">
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>51,68%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>63,89%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>56,91%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
         <is>
           <t>76,8%</t>
         </is>
@@ -829,15 +1424,60 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
+          <t>45,5; 48,96</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>57,97; 61,53</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>52,64; 56,14</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
           <t>74,28; 77,95</t>
         </is>
       </c>
-      <c r="D15" s="2" t="inlineStr">
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>54,02; 57,45</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>66,28; 69,5</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>57,46; 60,9</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
         <is>
           <t>70,15; 80,07</t>
         </is>
       </c>
-      <c r="E15" s="2" t="inlineStr">
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>50,4; 52,88</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>62,56; 65,01</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>55,61; 58,08</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
         <is>
           <t>72,65; 78,48</t>
         </is>
@@ -851,13 +1491,16 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="10">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="K1:N1"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_dic/P36B_4_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P36B_4_R-Habitat-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>47,51; 66,14</t>
+          <t>47,39; 66,33</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>53,28; 71,31</t>
+          <t>53,55; 70,05</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>45,03; 63,03</t>
+          <t>44,59; 62,64</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>64,9; 85,0</t>
+          <t>66,61; 84,61</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>53,97; 70,61</t>
+          <t>53,61; 70,42</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>72,28; 88,14</t>
+          <t>71,75; 87,89</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>53,8; 71,08</t>
+          <t>53,02; 70,4</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>74,0; 85,62</t>
+          <t>73,54; 85,98</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>52,69; 65,85</t>
+          <t>52,9; 65,63</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>65,01; 77,02</t>
+          <t>65,15; 76,87</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>51,12; 64,96</t>
+          <t>50,79; 64,68</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>73,2; 83,69</t>
+          <t>73,39; 83,24</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>44,85; 53,39</t>
+          <t>44,83; 53,03</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>60,15; 68,04</t>
+          <t>60,19; 67,99</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>51,54; 60,19</t>
+          <t>51,99; 60,38</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>77,74; 85,14</t>
+          <t>77,72; 84,77</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>56,44; 63,96</t>
+          <t>56,15; 63,95</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>65,11; 72,53</t>
+          <t>64,42; 72,67</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>56,43; 64,33</t>
+          <t>56,08; 64,53</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>80,59; 85,89</t>
+          <t>80,35; 85,65</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>51,68; 57,32</t>
+          <t>51,75; 57,76</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>63,55; 69,13</t>
+          <t>63,4; 69,05</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>55,31; 60,9</t>
+          <t>54,98; 61,06</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>80,07; 84,79</t>
+          <t>79,97; 84,38</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>44,29; 50,79</t>
+          <t>44,17; 50,55</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>54,58; 61,29</t>
+          <t>54,64; 61,4</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>50,74; 57,17</t>
+          <t>50,68; 57,27</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>77,61; 84,18</t>
+          <t>77,3; 84,1</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>51,49; 57,91</t>
+          <t>51,35; 57,86</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>64,97; 71,24</t>
+          <t>64,86; 71,17</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>52,01; 58,46</t>
+          <t>51,47; 57,89</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>81,95; 86,34</t>
+          <t>81,82; 86,06</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>48,66; 53,33</t>
+          <t>48,88; 53,41</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>60,85; 65,27</t>
+          <t>61,05; 65,45</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>52,38; 56,75</t>
+          <t>52,26; 56,63</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>80,37; 84,23</t>
+          <t>80,45; 84,29</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>44,45; 52,24</t>
+          <t>44,4; 52,47</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>52,19; 60,06</t>
+          <t>52,66; 60,11</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>45,26; 52,58</t>
+          <t>45,14; 52,55</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>68,21; 76,11</t>
+          <t>68,21; 75,8</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>53,56; 61,05</t>
+          <t>53,66; 61,05</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>58,41; 65,84</t>
+          <t>58,84; 65,9</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>49,93; 57,11</t>
+          <t>49,9; 56,75</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>43,22; 75,21</t>
+          <t>41,88; 74,96</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>49,9; 55,49</t>
+          <t>49,98; 55,67</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>56,79; 62,03</t>
+          <t>56,65; 61,79</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>48,79; 53,84</t>
+          <t>48,55; 53,92</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>53,37; 73,91</t>
+          <t>52,72; 73,98</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>41,38; 47,82</t>
+          <t>41,39; 47,56</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>57,76; 64,27</t>
+          <t>57,97; 64,76</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>55,42; 61,82</t>
+          <t>55,47; 62,16</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>68,44; 74,89</t>
+          <t>68,46; 74,86</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>49,43; 55,73</t>
+          <t>48,93; 55,67</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>67,03; 72,91</t>
+          <t>66,9; 72,99</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>63,46; 69,74</t>
+          <t>63,71; 69,89</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>74,55; 79,53</t>
+          <t>74,62; 79,48</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>46,41; 50,73</t>
+          <t>46,41; 50,89</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>63,56; 67,83</t>
+          <t>63,56; 67,95</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>60,74; 65,06</t>
+          <t>60,9; 65,25</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>72,69; 76,57</t>
+          <t>72,53; 76,61</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>45,5; 48,96</t>
+          <t>45,8; 49,27</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>57,97; 61,53</t>
+          <t>57,97; 61,52</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>52,64; 56,14</t>
+          <t>52,76; 56,16</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>74,28; 77,95</t>
+          <t>74,44; 77,95</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>54,02; 57,45</t>
+          <t>54,05; 57,36</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>66,28; 69,5</t>
+          <t>66,33; 69,45</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>57,46; 60,9</t>
+          <t>57,61; 60,95</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>70,15; 80,07</t>
+          <t>68,99; 80,1</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>50,4; 52,88</t>
+          <t>50,55; 52,86</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>62,56; 65,01</t>
+          <t>62,69; 65,03</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>55,61; 58,08</t>
+          <t>55,62; 58,07</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>72,65; 78,48</t>
+          <t>72,71; 78,46</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P36B_4_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P36B_4_R-Habitat-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N16"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>56,93%</t>
+          <t>50,37%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>62,16%</t>
+          <t>63,78%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>54,16%</t>
+          <t>55,65%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>76,51%</t>
+          <t>79,45%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>61,73%</t>
+          <t>60,59%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>81,39%</t>
+          <t>70,56%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>62,81%</t>
+          <t>60,86%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>80,41%</t>
+          <t>82,07%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>59,3%</t>
+          <t>55,46%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>71,61%</t>
+          <t>67,16%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>58,43%</t>
+          <t>58,25%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>78,71%</t>
+          <t>80,8%</t>
         </is>
       </c>
     </row>
@@ -724,69 +724,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>47,39; 66,33</t>
+          <t>46,57; 53,94</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>53,55; 70,05</t>
+          <t>60,07; 67,18</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>44,59; 62,64</t>
+          <t>51,72; 59,29</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>66,61; 84,61</t>
+          <t>75,11; 82,78</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>53,61; 70,42</t>
+          <t>56,87; 63,96</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>71,75; 87,89</t>
+          <t>67,09; 73,87</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>53,02; 70,4</t>
+          <t>56,6; 64,75</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>73,54; 85,98</t>
+          <t>79,49; 84,46</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>52,9; 65,63</t>
+          <t>52,8; 58,18</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>65,15; 76,87</t>
+          <t>64,56; 69,7</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>50,79; 64,68</t>
+          <t>55,55; 61,04</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>73,39; 83,24</t>
+          <t>78,5; 82,81</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>49,06%</t>
+          <t>47,39%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>64,1%</t>
+          <t>58,06%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>55,96%</t>
+          <t>53,93%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>81,34%</t>
+          <t>82,59%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>60,36%</t>
+          <t>54,87%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>68,49%</t>
+          <t>68,18%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>60,47%</t>
+          <t>55,0%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>83,28%</t>
+          <t>83,68%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>54,7%</t>
+          <t>51,14%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>66,29%</t>
+          <t>63,16%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>58,22%</t>
+          <t>54,47%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>82,35%</t>
+          <t>83,07%</t>
         </is>
       </c>
     </row>
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>44,83; 53,03</t>
+          <t>44,17; 50,55</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>60,19; 67,99</t>
+          <t>54,64; 61,4</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>51,99; 60,38</t>
+          <t>50,68; 57,27</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>77,72; 84,77</t>
+          <t>76,8; 90,25</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>56,15; 63,95</t>
+          <t>51,35; 57,86</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>64,42; 72,67</t>
+          <t>64,86; 71,17</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>56,08; 64,53</t>
+          <t>51,47; 57,89</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>80,35; 85,65</t>
+          <t>81,3; 85,6</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>51,75; 57,76</t>
+          <t>48,88; 53,41</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>63,4; 69,05</t>
+          <t>61,05; 65,45</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>54,98; 61,06</t>
+          <t>52,26; 56,63</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>79,97; 84,38</t>
+          <t>80,04; 88,93</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>47,39%</t>
+          <t>48,37%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>58,06%</t>
+          <t>56,3%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>53,93%</t>
+          <t>48,9%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>80,52%</t>
+          <t>71,63%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>54,87%</t>
+          <t>57,41%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>68,18%</t>
+          <t>62,38%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>55,0%</t>
+          <t>53,61%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>84,17%</t>
+          <t>58,16%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>51,14%</t>
+          <t>52,91%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>63,16%</t>
+          <t>59,38%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>54,47%</t>
+          <t>51,29%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>82,36%</t>
+          <t>63,95%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>44,17; 50,55</t>
+          <t>44,4; 52,47</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>54,64; 61,4</t>
+          <t>52,66; 60,11</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>50,68; 57,27</t>
+          <t>45,14; 52,55</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>77,3; 84,1</t>
+          <t>67,87; 75,58</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>51,35; 57,86</t>
+          <t>53,66; 61,05</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>64,86; 71,17</t>
+          <t>58,84; 65,9</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>51,47; 57,89</t>
+          <t>49,9; 56,75</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>81,82; 86,06</t>
+          <t>29,95; 75,61</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>48,88; 53,41</t>
+          <t>49,98; 55,67</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>61,05; 65,45</t>
+          <t>56,65; 61,79</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>52,26; 56,63</t>
+          <t>48,55; 53,92</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>80,45; 84,29</t>
+          <t>41,84; 74,06</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>48,37%</t>
+          <t>44,52%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>56,3%</t>
+          <t>61,15%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>48,9%</t>
+          <t>58,77%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>71,95%</t>
+          <t>70,33%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>57,41%</t>
+          <t>52,54%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>62,38%</t>
+          <t>70,0%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>53,61%</t>
+          <t>66,67%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>64,87%</t>
+          <t>77,24%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>52,91%</t>
+          <t>48,72%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>59,38%</t>
+          <t>65,8%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>51,29%</t>
+          <t>62,93%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>68,09%</t>
+          <t>74,07%</t>
         </is>
       </c>
     </row>
@@ -1144,69 +1144,69 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>44,4; 52,47</t>
+          <t>41,39; 47,56</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>52,66; 60,11</t>
+          <t>57,97; 64,76</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>45,14; 52,55</t>
+          <t>55,47; 62,16</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>68,21; 75,8</t>
+          <t>66,64; 73,55</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>53,66; 61,05</t>
+          <t>48,93; 55,67</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>58,84; 65,9</t>
+          <t>66,9; 72,99</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>49,9; 56,75</t>
+          <t>63,71; 69,89</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>41,88; 74,96</t>
+          <t>74,39; 81,59</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>49,98; 55,67</t>
+          <t>46,41; 50,89</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>56,65; 61,79</t>
+          <t>63,56; 67,95</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>48,55; 53,92</t>
+          <t>60,9; 65,25</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>52,72; 73,98</t>
+          <t>71,72; 76,81</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>44,52%</t>
+          <t>47,4%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>61,15%</t>
+          <t>59,71%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>58,77%</t>
+          <t>54,48%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>71,86%</t>
+          <t>76,5%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>52,54%</t>
+          <t>55,83%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>70,0%</t>
+          <t>67,92%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>66,67%</t>
+          <t>59,24%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>77,05%</t>
+          <t>74,95%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>48,72%</t>
+          <t>51,68%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>65,8%</t>
+          <t>63,89%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>62,93%</t>
+          <t>56,91%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>74,68%</t>
+          <t>75,7%</t>
         </is>
       </c>
     </row>
@@ -1284,214 +1284,74 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>41,39; 47,56</t>
+          <t>45,8; 49,27</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>57,97; 64,76</t>
+          <t>57,97; 61,52</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>55,47; 62,16</t>
+          <t>52,76; 56,16</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>68,46; 74,86</t>
+          <t>73,96; 81,58</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>48,93; 55,67</t>
+          <t>54,05; 57,36</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>66,9; 72,99</t>
+          <t>66,33; 69,45</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>63,71; 69,89</t>
+          <t>57,61; 60,95</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>74,62; 79,48</t>
+          <t>60,58; 79,98</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>46,41; 50,89</t>
+          <t>50,55; 52,86</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>63,56; 67,95</t>
+          <t>62,69; 65,03</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>60,9; 65,25</t>
+          <t>55,62; 58,07</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>72,53; 76,61</t>
+          <t>68,8; 78,7</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>47,4%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>59,71%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>54,48%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>76,22%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>55,83%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>67,92%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>59,24%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>77,32%</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>51,68%</t>
-        </is>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t>63,89%</t>
-        </is>
-      </c>
-      <c r="M14" s="2" t="inlineStr">
-        <is>
-          <t>56,91%</t>
-        </is>
-      </c>
-      <c r="N14" s="2" t="inlineStr">
-        <is>
-          <t>76,8%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>45,8; 49,27</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>57,97; 61,52</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>52,76; 56,16</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>74,44; 77,95</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>54,05; 57,36</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>66,33; 69,45</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>57,61; 60,95</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>68,99; 80,1</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>50,55; 52,86</t>
-        </is>
-      </c>
-      <c r="L15" s="2" t="inlineStr">
-        <is>
-          <t>62,69; 65,03</t>
-        </is>
-      </c>
-      <c r="M15" s="2" t="inlineStr">
-        <is>
-          <t>55,62; 58,07</t>
-        </is>
-      </c>
-      <c r="N15" s="2" t="inlineStr">
-        <is>
-          <t>72,71; 78,46</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1501,7 +1361,6 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="K1:N1"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_dic/P36B_4_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P36B_4_R-Habitat-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>46,57; 53,94</t>
+          <t>46,72; 53,93</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>60,07; 67,18</t>
+          <t>60,27; 67,24</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>51,72; 59,29</t>
+          <t>51,88; 59,85</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>75,11; 82,78</t>
+          <t>75,37; 82,79</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>56,87; 63,96</t>
+          <t>56,94; 64,22</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>67,09; 73,87</t>
+          <t>66,98; 73,82</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>56,6; 64,75</t>
+          <t>56,98; 64,45</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>79,49; 84,46</t>
+          <t>79,55; 84,31</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>52,8; 58,18</t>
+          <t>52,96; 58,0</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>64,56; 69,7</t>
+          <t>64,26; 69,6</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>55,55; 61,04</t>
+          <t>55,5; 60,85</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>78,5; 82,81</t>
+          <t>78,43; 82,77</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>44,17; 50,55</t>
+          <t>44,1; 50,8</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>54,64; 61,4</t>
+          <t>54,85; 61,19</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>50,68; 57,27</t>
+          <t>50,92; 57,1</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>76,8; 90,25</t>
+          <t>76,99; 90,76</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>51,35; 57,86</t>
+          <t>51,63; 58,39</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>64,86; 71,17</t>
+          <t>64,71; 71,12</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>51,47; 57,89</t>
+          <t>51,67; 58,34</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>81,3; 85,6</t>
+          <t>81,36; 85,77</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>48,88; 53,41</t>
+          <t>48,93; 53,58</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>61,05; 65,45</t>
+          <t>60,75; 65,47</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>52,26; 56,63</t>
+          <t>52,35; 56,88</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>80,04; 88,93</t>
+          <t>80,31; 88,64</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>44,4; 52,47</t>
+          <t>44,57; 52,54</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>52,66; 60,11</t>
+          <t>52,34; 59,93</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>45,14; 52,55</t>
+          <t>44,9; 52,77</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>67,87; 75,58</t>
+          <t>67,48; 75,22</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>53,66; 61,05</t>
+          <t>53,58; 61,28</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>58,84; 65,9</t>
+          <t>58,84; 65,97</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>49,9; 56,75</t>
+          <t>49,93; 57,19</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>29,95; 75,61</t>
+          <t>32,11; 75,68</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>49,98; 55,67</t>
+          <t>50,47; 55,71</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>56,65; 61,79</t>
+          <t>56,5; 61,89</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>48,55; 53,92</t>
+          <t>48,65; 53,77</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>41,84; 74,06</t>
+          <t>43,57; 73,91</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>41,39; 47,56</t>
+          <t>41,41; 47,55</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>57,97; 64,76</t>
+          <t>57,86; 64,16</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>55,47; 62,16</t>
+          <t>55,37; 61,94</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>66,64; 73,55</t>
+          <t>66,81; 73,58</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>48,93; 55,67</t>
+          <t>49,6; 55,57</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>66,9; 72,99</t>
+          <t>66,82; 72,71</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>63,71; 69,89</t>
+          <t>63,73; 69,58</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>74,39; 81,59</t>
+          <t>74,41; 81,78</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>46,41; 50,89</t>
+          <t>46,62; 51,0</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>63,56; 67,95</t>
+          <t>63,65; 67,94</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>60,9; 65,25</t>
+          <t>60,72; 65,17</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>71,72; 76,81</t>
+          <t>71,79; 77,52</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>45,8; 49,27</t>
+          <t>45,44; 49,09</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>57,97; 61,52</t>
+          <t>57,88; 61,37</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>52,76; 56,16</t>
+          <t>52,87; 56,25</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>73,96; 81,58</t>
+          <t>73,84; 81,23</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>54,05; 57,36</t>
+          <t>54,08; 57,57</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>66,33; 69,45</t>
+          <t>66,3; 69,6</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>57,61; 60,95</t>
+          <t>57,74; 60,96</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>60,58; 79,98</t>
+          <t>60,78; 79,96</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>50,55; 52,86</t>
+          <t>50,38; 52,89</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>62,69; 65,03</t>
+          <t>62,72; 65,06</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>55,62; 58,07</t>
+          <t>55,68; 58,12</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>68,8; 78,7</t>
+          <t>68,49; 78,59</t>
         </is>
       </c>
     </row>
@@ -1364,4 +1365,1212 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que consume frutas a diario</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>&lt;10.000 hab</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>342</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>429</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>363</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>594</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>417</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>458</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>401</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>1043</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>759</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>887</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>1637</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>349113</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>448692</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>374909</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>504030</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>417044</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>491866</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>409507</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>553115</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>766157</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>940558</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>784417</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>1057145</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>323783; 373770</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>423988; 473042</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>349564; 403269</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>478156; 525261</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>391967; 442045</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>466907; 514595</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>383385; 433673</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>536086; 568172</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>731532; 801158</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>899942; 974735</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>747343; 819396</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>1026100; 1082848</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>10-50.000 hab</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>432</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>540</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>512</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>774</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>493</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>647</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>527</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>1289</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>925</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>1187</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>1039</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>2063</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>455301</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>589305</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>549889</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>985141</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>530798</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>703012</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>571516</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>801327</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>986100</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>1292317</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>1121406</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>1786469</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>423710; 488077</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>556746; 621036</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>519146; 582230</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>918350; 1082649</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>499416; 564826</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>667237; 733327</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>536935; 606286</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>779102; 821341</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>943363; 1033103</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>1243072; 1339650</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>1077735; 1171047</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>1727074; 1906252</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>&gt;50.000 hab</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>311</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>386</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>344</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>503</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>440</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>390</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>792</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>711</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>826</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>734</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>1295</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>328167</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>425388</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>370932</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>504760</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>392594</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>483421</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>420829</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>542849</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>720761</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>908809</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>791762</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>1047610</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>302436; 356493</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>395426; 452770</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>340631; 400331</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>475548; 530041</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>366421; 419032</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>456003; 511307</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>391952; 448964</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>299693; 706349</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>687511; 758972</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>864675; 947231</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>750985; 829920</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>713775; 1210708</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Capitales</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>447</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>545</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>541</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>744</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>521</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>699</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>628</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>1199</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>968</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>1244</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>1169</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>1943</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>419078</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>579554</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>549888</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>651751</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>545174</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>733502</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>694460</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>844808</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>964252</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>1313056</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>1244348</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>1496560</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>389792; 447598</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>548357; 608112</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>518077; 579543</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>619111; 681798</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>514689; 576575</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>700096; 761901</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>663823; 724761</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>813933; 894545</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>922512; 1009186</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>1270236; 1355709</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>1200637; 1288606</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>1450495; 1566307</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>1532</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>1900</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>1760</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>2615</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>1831</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>2244</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>1946</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>4323</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>3363</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>4144</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>3706</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>6938</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>1551659</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>2042940</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>1845619</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>2645683</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>1885611</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>2411801</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>2096313</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>2742099</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>3437270</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>4454740</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>3941932</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>5387783</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>1487611; 1606903</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>1980512; 2099905</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>1790896; 1905519</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>2553818; 2809474</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>1826413; 1944171</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>2354136; 2471592</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>2043265; 2157069</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>2223756; 2925491</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>3350941; 3517571</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>4373026; 4536435</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>3856856; 4025210</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>4874598; 5593685</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>